--- a/data/trans_dic/IP29_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP29_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -578,52 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -639,14 +618,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -671,47 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>77,96%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>30,24%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>47,97%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>78,44%</t>
+          <t>49,03%</t>
         </is>
       </c>
     </row>
@@ -724,69 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,91; 56,7</t>
+          <t>23,34; 57,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,89; 56,62</t>
+          <t>18,84; 56,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,7; 73,25</t>
+          <t>36,76; 72,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,01; 100,0</t>
+          <t>7,74; 39,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 36,99</t>
+          <t>10,77; 42,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 41,74</t>
+          <t>22,28; 64,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,94; 64,13</t>
+          <t>19,31; 43,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,73; 93,24</t>
+          <t>18,87; 44,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,27; 39,69</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>19,33; 43,91</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>34,83; 62,45</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>55,0; 92,3</t>
+          <t>35,77; 62,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>29,51%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>34,59%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>55,79%</t>
+          <t>34,8%</t>
         </is>
       </c>
     </row>
@@ -864,69 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,67; 28,58</t>
+          <t>17,49; 29,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 33,2</t>
+          <t>21,4; 34,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,13; 40,49</t>
+          <t>25,88; 40,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,64; 72,66</t>
+          <t>22,58; 36,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,37; 34,62</t>
+          <t>26,35; 41,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,04; 40,5</t>
+          <t>28,11; 43,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,5; 43,66</t>
+          <t>21,35; 30,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,62; 65,33</t>
+          <t>25,28; 35,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,86; 29,7</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>24,22; 34,23</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>29,25; 39,89</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>46,49; 64,89</t>
+          <t>29,43; 39,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,44%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>24,09%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>30,86%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>56,08%</t>
+          <t>31,17%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,52; 33,07</t>
+          <t>23,99; 33,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 26,6</t>
+          <t>18,17; 27,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,16; 36,8</t>
+          <t>26,97; 37,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,98; 62,01</t>
+          <t>29,02; 39,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,62; 38,87</t>
+          <t>21,95; 31,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 30,87</t>
+          <t>25,79; 35,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,7; 35,26</t>
+          <t>27,66; 35,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,63; 66,6</t>
+          <t>20,97; 27,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,28; 35,2</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>20,73; 28,1</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>27,5; 34,45</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>50,69; 61,71</t>
+          <t>27,54; 34,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,49%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>24,06%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>27,77%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>72,32%</t>
+          <t>28,19%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 31,3</t>
+          <t>20,56; 32,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 27,85</t>
+          <t>18,11; 28,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,44; 33,79</t>
+          <t>22,64; 34,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,0; 85,89</t>
+          <t>24,14; 36,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,01; 35,6</t>
+          <t>20,63; 32,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 31,72</t>
+          <t>22,86; 34,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 33,01</t>
+          <t>24,3; 32,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,74; 77,61</t>
+          <t>20,96; 28,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,65; 31,57</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>20,52; 28,02</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>24,0; 32,27</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>63,3; 79,56</t>
+          <t>24,06; 32,4</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>23,95%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>65,42%</t>
+          <t>24,34%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,2; 37,4</t>
+          <t>27,49; 38,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 27,2</t>
+          <t>17,37; 28,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 30,83</t>
+          <t>20,65; 31,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,58; 79,51</t>
+          <t>26,82; 37,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,04; 36,74</t>
+          <t>19,95; 30,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 30,54</t>
+          <t>18,54; 28,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,51</t>
+          <t>28,66; 36,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,87; 68,02</t>
+          <t>20,16; 27,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,53; 35,27</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>19,77; 26,87</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>20,32; 27,69</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>58,4; 71,49</t>
+          <t>20,86; 27,67</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>24,98%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>29,38%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>62,07%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,03; 30,77</t>
+          <t>25,91; 31,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,24</t>
+          <t>21,29; 26,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,29; 32,93</t>
+          <t>27,66; 33,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59,07; 68,89</t>
+          <t>28,6; 34,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,79; 33,57</t>
+          <t>24,42; 30,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,85; 29,62</t>
+          <t>26,35; 31,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,27; 31,68</t>
+          <t>28,23; 32,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,05; 64,8</t>
+          <t>23,54; 27,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,24; 31,43</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>23,2; 27,08</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>27,52; 31,33</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>58,41; 65,41</t>
+          <t>27,63; 31,58</t>
         </is>
       </c>
     </row>
@@ -1492,15 +1288,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/IP29_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP29_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>37,23%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 57,38</t>
+          <t>21,15; 33,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 56,28</t>
+          <t>25,16; 38,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,76; 72,61</t>
+          <t>30,31; 44,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 39,11</t>
+          <t>20,36; 32,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 42,69</t>
+          <t>22,45; 35,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,28; 64,07</t>
+          <t>30,74; 44,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,31; 43,37</t>
+          <t>21,89; 30,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,87; 44,73</t>
+          <t>25,83; 34,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,77; 62,21</t>
+          <t>31,94; 42,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>31,17%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 29,6</t>
+          <t>28,91; 40,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,4; 34,92</t>
+          <t>22,11; 31,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 40,35</t>
+          <t>25,83; 35,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,58; 36,24</t>
+          <t>23,14; 33,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 41,17</t>
+          <t>17,78; 27,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,11; 43,88</t>
+          <t>26,88; 36,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,35; 30,66</t>
+          <t>27,73; 35,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 35,38</t>
+          <t>21,33; 28,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,43; 39,7</t>
+          <t>27,79; 34,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>28,19%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,99; 33,67</t>
+          <t>24,77; 36,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 27,48</t>
+          <t>20,17; 31,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,97; 37,3</t>
+          <t>22,84; 34,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 39,61</t>
+          <t>20,7; 32,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 31,58</t>
+          <t>17,55; 28,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,79; 35,74</t>
+          <t>22,6; 33,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,66; 35,11</t>
+          <t>23,9; 32,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,97; 27,69</t>
+          <t>20,91; 28,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 34,94</t>
+          <t>23,75; 32,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>24,34%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 32,13</t>
+          <t>27,2; 38,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 28,75</t>
+          <t>19,9; 29,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,64; 34,45</t>
+          <t>18,02; 28,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 36,56</t>
+          <t>27,5; 38,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,63; 32,35</t>
+          <t>17,18; 27,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 34,28</t>
+          <t>20,83; 30,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,3; 32,44</t>
+          <t>28,67; 36,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 28,76</t>
+          <t>20,1; 27,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 32,4</t>
+          <t>20,59; 28,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,49; 38,13</t>
+          <t>28,5; 34,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 28,13</t>
+          <t>24,09; 29,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,65; 31,35</t>
+          <t>26,45; 32,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,82; 37,74</t>
+          <t>25,83; 31,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,95; 30,5</t>
+          <t>21,33; 26,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 28,01</t>
+          <t>27,57; 33,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,66; 36,34</t>
+          <t>27,97; 32,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,16; 27,28</t>
+          <t>23,35; 27,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,86; 27,67</t>
+          <t>27,83; 31,77</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>28,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>23,79%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>30,36%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>31,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27,03%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>29,11%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>29,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25,37%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>29,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>25,91; 31,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>21,29; 26,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>27,66; 33,13</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>28,6; 34,47</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>24,42; 30,01</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>26,35; 31,94</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>28,23; 32,04</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>23,54; 27,21</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>27,63; 31,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
